--- a/data/pca/factorExposure/factorExposure_2012-09-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-09-10.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.00245328423955843</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001913321837289577</v>
+      </c>
+      <c r="C2">
+        <v>0.02837468910071986</v>
+      </c>
+      <c r="D2">
+        <v>0.005136328607512212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0002771890588406177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006801134393538981</v>
+      </c>
+      <c r="C4">
+        <v>0.08299599583464858</v>
+      </c>
+      <c r="D4">
+        <v>0.06948986715459407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.005433362718322322</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01473653139866844</v>
+      </c>
+      <c r="C6">
+        <v>0.1180296961522335</v>
+      </c>
+      <c r="D6">
+        <v>0.02223005600341822</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.0009805323724548806</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.005053029406115702</v>
+      </c>
+      <c r="C7">
+        <v>0.05878712449625003</v>
+      </c>
+      <c r="D7">
+        <v>0.03329138916735292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.001931396195119223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.006096497294912856</v>
+      </c>
+      <c r="C8">
+        <v>0.03527104833733019</v>
+      </c>
+      <c r="D8">
+        <v>0.04101473433122232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.0006050532814579017</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005444804954675207</v>
+      </c>
+      <c r="C9">
+        <v>0.07102959518114151</v>
+      </c>
+      <c r="D9">
+        <v>0.07527470341039644</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002590310458252254</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.004007238169737853</v>
+      </c>
+      <c r="C10">
+        <v>0.05174659515861887</v>
+      </c>
+      <c r="D10">
+        <v>-0.1869096075144955</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.001260326876123545</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005838006009898701</v>
+      </c>
+      <c r="C11">
+        <v>0.07961694634284253</v>
+      </c>
+      <c r="D11">
+        <v>0.06583910129045017</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0006552916431644172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004521489135800439</v>
+      </c>
+      <c r="C12">
+        <v>0.06473739708729191</v>
+      </c>
+      <c r="D12">
+        <v>0.05004128082840471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002012208520637365</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008701995696479132</v>
+      </c>
+      <c r="C13">
+        <v>0.06963705581915512</v>
+      </c>
+      <c r="D13">
+        <v>0.05846178497081615</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001656886805179555</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.000808438425102056</v>
+      </c>
+      <c r="C14">
+        <v>0.04254420548388593</v>
+      </c>
+      <c r="D14">
+        <v>0.01217972609923868</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.001458032971346153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.00598277190349666</v>
+      </c>
+      <c r="C15">
+        <v>0.03978293146861138</v>
+      </c>
+      <c r="D15">
+        <v>0.03030013295599561</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>6.885588023296023e-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005187591037822362</v>
+      </c>
+      <c r="C16">
+        <v>0.06427725178096412</v>
+      </c>
+      <c r="D16">
+        <v>0.05739240656090065</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.002337747160023176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008687096261168785</v>
+      </c>
+      <c r="C20">
+        <v>0.0632904718349302</v>
+      </c>
+      <c r="D20">
+        <v>0.05339869401170196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005525024345629664</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009527038105733984</v>
+      </c>
+      <c r="C21">
+        <v>0.01997053995608064</v>
+      </c>
+      <c r="D21">
+        <v>0.04073647554253281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.0191808213366961</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006752304419808884</v>
+      </c>
+      <c r="C22">
+        <v>0.0868517964968553</v>
+      </c>
+      <c r="D22">
+        <v>0.1227183654420954</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01883205771544505</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.00644609193843427</v>
+      </c>
+      <c r="C23">
+        <v>0.08722874265600331</v>
+      </c>
+      <c r="D23">
+        <v>0.1238369641557187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001577207636181119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005705574611960527</v>
+      </c>
+      <c r="C24">
+        <v>0.07630708166636595</v>
+      </c>
+      <c r="D24">
+        <v>0.0676000330376105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003113260427979342</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003233447071910223</v>
+      </c>
+      <c r="C25">
+        <v>0.07773069338720949</v>
+      </c>
+      <c r="D25">
+        <v>0.06674512838051462</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.001587140684211768</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003494884249013667</v>
+      </c>
+      <c r="C26">
+        <v>0.03850729874827683</v>
+      </c>
+      <c r="D26">
+        <v>0.02463809006473982</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.006307402305188133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001787408260353613</v>
+      </c>
+      <c r="C28">
+        <v>0.1037784096816084</v>
+      </c>
+      <c r="D28">
+        <v>-0.3252055988744343</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001136670724325623</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002846854293416743</v>
+      </c>
+      <c r="C29">
+        <v>0.04754587859003817</v>
+      </c>
+      <c r="D29">
+        <v>0.01129974405232536</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.002635257501220048</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.00950301512977539</v>
+      </c>
+      <c r="C30">
+        <v>0.1410859528284129</v>
+      </c>
+      <c r="D30">
+        <v>0.1106888060075785</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.002153094495389435</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006411402532066528</v>
+      </c>
+      <c r="C31">
+        <v>0.04339921568010943</v>
+      </c>
+      <c r="D31">
+        <v>0.03295625028000319</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-6.517542629764164e-05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003760173148411029</v>
+      </c>
+      <c r="C32">
+        <v>0.03989007373975712</v>
+      </c>
+      <c r="D32">
+        <v>0.02009945570489356</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.0002177137671052493</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008947539605382367</v>
+      </c>
+      <c r="C33">
+        <v>0.08900566780183546</v>
+      </c>
+      <c r="D33">
+        <v>0.06514412001712354</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.001488857405205913</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004266027959565807</v>
+      </c>
+      <c r="C34">
+        <v>0.05754174929670753</v>
+      </c>
+      <c r="D34">
+        <v>0.0586737656274174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002154471199210728</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005323175282025749</v>
+      </c>
+      <c r="C35">
+        <v>0.04040089971688104</v>
+      </c>
+      <c r="D35">
+        <v>0.01808368035371684</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004527677245157903</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001342994716816156</v>
+      </c>
+      <c r="C36">
+        <v>0.02461402338152304</v>
+      </c>
+      <c r="D36">
+        <v>0.02532712061506058</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002745503430380008</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009047986320999329</v>
+      </c>
+      <c r="C38">
+        <v>0.04075114257789088</v>
+      </c>
+      <c r="D38">
+        <v>0.01100073359682126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01101687392430263</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001695209908415927</v>
+      </c>
+      <c r="C39">
+        <v>0.1108192464012578</v>
+      </c>
+      <c r="D39">
+        <v>0.08025828204715006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.002933646533862908</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.00359806667306808</v>
+      </c>
+      <c r="C40">
+        <v>0.09038884005150517</v>
+      </c>
+      <c r="D40">
+        <v>0.01624266272549158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.002110515738657854</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007361130667914132</v>
+      </c>
+      <c r="C41">
+        <v>0.04062241303272662</v>
+      </c>
+      <c r="D41">
+        <v>0.04137147825468288</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.001845486951050175</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003765914319422936</v>
+      </c>
+      <c r="C43">
+        <v>0.05385494651011888</v>
+      </c>
+      <c r="D43">
+        <v>0.0291245435495676</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.006535064130956942</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.00277639462916405</v>
+      </c>
+      <c r="C44">
+        <v>0.1034423393815744</v>
+      </c>
+      <c r="D44">
+        <v>0.06875041167817381</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001117728649222311</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001673321820626803</v>
+      </c>
+      <c r="C46">
+        <v>0.03233930237178588</v>
+      </c>
+      <c r="D46">
+        <v>0.03403090933749939</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.000917293202299863</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002255909460452822</v>
+      </c>
+      <c r="C47">
+        <v>0.03493696294942144</v>
+      </c>
+      <c r="D47">
+        <v>0.02362142030813038</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003903855276949758</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006935893706680568</v>
+      </c>
+      <c r="C48">
+        <v>0.03187201786514858</v>
+      </c>
+      <c r="D48">
+        <v>0.03515310089451348</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.003795242782082302</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01681683826780676</v>
+      </c>
+      <c r="C49">
+        <v>0.1880713694120507</v>
+      </c>
+      <c r="D49">
+        <v>0.007124413383136405</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0007353915692852606</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003812111954211916</v>
+      </c>
+      <c r="C50">
+        <v>0.04309227367179693</v>
+      </c>
+      <c r="D50">
+        <v>0.04045027863585868</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0003007273916009905</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004304880010127274</v>
+      </c>
+      <c r="C51">
+        <v>0.02631926023392275</v>
+      </c>
+      <c r="D51">
+        <v>0.02366823347219344</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.008080682293209318</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02167978132277473</v>
+      </c>
+      <c r="C53">
+        <v>0.1711675412828439</v>
+      </c>
+      <c r="D53">
+        <v>0.01956845134327637</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.003939463967446702</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009560676721615832</v>
+      </c>
+      <c r="C54">
+        <v>0.05630981976971122</v>
+      </c>
+      <c r="D54">
+        <v>0.04217355282954714</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.001349571416560387</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009895250674578483</v>
+      </c>
+      <c r="C55">
+        <v>0.1082179063327379</v>
+      </c>
+      <c r="D55">
+        <v>0.03697494742396778</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.008337078328641898</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02071790881457588</v>
+      </c>
+      <c r="C56">
+        <v>0.1748324972419942</v>
+      </c>
+      <c r="D56">
+        <v>0.01446958995600067</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.003749757442029067</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01918218476801549</v>
+      </c>
+      <c r="C58">
+        <v>0.1050579611157049</v>
+      </c>
+      <c r="D58">
+        <v>0.06701576575807654</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.002260274815526964</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009900056661709077</v>
+      </c>
+      <c r="C59">
+        <v>0.1679542772973567</v>
+      </c>
+      <c r="D59">
+        <v>-0.342745433437217</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.006670702774691841</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02476496202950139</v>
+      </c>
+      <c r="C60">
+        <v>0.2260707882949472</v>
+      </c>
+      <c r="D60">
+        <v>0.01734779114264827</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01016267390765683</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001841877969105647</v>
+      </c>
+      <c r="C61">
+        <v>0.09371423560820469</v>
+      </c>
+      <c r="D61">
+        <v>0.05876627255477022</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1478561846391902</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1506258502384747</v>
+      </c>
+      <c r="C62">
+        <v>0.1001045389943106</v>
+      </c>
+      <c r="D62">
+        <v>0.01810383250367777</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.001653381328893989</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006793975286463672</v>
+      </c>
+      <c r="C63">
+        <v>0.05332056369781814</v>
+      </c>
+      <c r="D63">
+        <v>0.03415794920260637</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.009509486787395067</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01664478020181845</v>
+      </c>
+      <c r="C64">
+        <v>0.1052702444243121</v>
+      </c>
+      <c r="D64">
+        <v>0.0565276905433964</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.008578198561991469</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01778446931599091</v>
+      </c>
+      <c r="C65">
+        <v>0.120573209997863</v>
+      </c>
+      <c r="D65">
+        <v>0.02851726512050059</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.001280046700947582</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01316486961669566</v>
+      </c>
+      <c r="C66">
+        <v>0.1585722889014626</v>
+      </c>
+      <c r="D66">
+        <v>0.1121585966353076</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.006020180967179435</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01550559421896597</v>
+      </c>
+      <c r="C67">
+        <v>0.0732033746766925</v>
+      </c>
+      <c r="D67">
+        <v>0.02125127113095981</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.004158597115382605</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0006323476476086353</v>
+      </c>
+      <c r="C68">
+        <v>0.08572809743416923</v>
+      </c>
+      <c r="D68">
+        <v>-0.2581116844161924</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.0002946735425506363</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006449906085482856</v>
+      </c>
+      <c r="C69">
+        <v>0.05241986026004435</v>
+      </c>
+      <c r="D69">
+        <v>0.03814426160076637</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001300917751160959</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002450691291311442</v>
+      </c>
+      <c r="C70">
+        <v>0.007826138773205555</v>
+      </c>
+      <c r="D70">
+        <v>-0.0006495124076329421</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0005301695194980602</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.00525403370350948</v>
+      </c>
+      <c r="C71">
+        <v>0.08988727803765845</v>
+      </c>
+      <c r="D71">
+        <v>-0.301398124832522</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.003902969579422773</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01749272860485243</v>
+      </c>
+      <c r="C72">
+        <v>0.1580753117503485</v>
+      </c>
+      <c r="D72">
+        <v>0.008364819813903026</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.009359622141646975</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03115958607648932</v>
+      </c>
+      <c r="C73">
+        <v>0.2828028840792075</v>
+      </c>
+      <c r="D73">
+        <v>0.0520259828146513</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005296552989789015</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.00202604965852897</v>
+      </c>
+      <c r="C74">
+        <v>0.1017493215063279</v>
+      </c>
+      <c r="D74">
+        <v>0.03382045916219688</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.0009503929631662579</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01111869110491463</v>
+      </c>
+      <c r="C75">
+        <v>0.1210909628968925</v>
+      </c>
+      <c r="D75">
+        <v>0.02827340300838597</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01138991000865669</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02255558314046028</v>
+      </c>
+      <c r="C76">
+        <v>0.1464307546761066</v>
+      </c>
+      <c r="D76">
+        <v>0.05849701065182221</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.007263080408746676</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02065911360240286</v>
+      </c>
+      <c r="C77">
+        <v>0.1136685545795857</v>
+      </c>
+      <c r="D77">
+        <v>0.05723743001084722</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.005936186722783734</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01472005336365187</v>
+      </c>
+      <c r="C78">
+        <v>0.09871262095845372</v>
+      </c>
+      <c r="D78">
+        <v>0.08094067933162381</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02698850220079989</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03878977716032872</v>
+      </c>
+      <c r="C79">
+        <v>0.1560603135179058</v>
+      </c>
+      <c r="D79">
+        <v>0.03322628082872919</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006415068281673409</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.009606922013545566</v>
+      </c>
+      <c r="C80">
+        <v>0.03980453326838828</v>
+      </c>
+      <c r="D80">
+        <v>0.03095696654648174</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.004593042286901162</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01593912114442388</v>
+      </c>
+      <c r="C81">
+        <v>0.1295242151972178</v>
+      </c>
+      <c r="D81">
+        <v>0.0399801284270896</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.007295647036447631</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.019543718401067</v>
+      </c>
+      <c r="C82">
+        <v>0.1363599545734077</v>
+      </c>
+      <c r="D82">
+        <v>0.0370987973700546</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.003943626597427377</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01208461132440752</v>
+      </c>
+      <c r="C83">
+        <v>0.06365269695921991</v>
+      </c>
+      <c r="D83">
+        <v>0.04660446403692915</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.009914982105707891</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01171018716844874</v>
+      </c>
+      <c r="C84">
+        <v>0.03838175454223432</v>
+      </c>
+      <c r="D84">
+        <v>-0.003793525983275333</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01833775140810837</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02912109918152947</v>
+      </c>
+      <c r="C85">
+        <v>0.123196850804675</v>
+      </c>
+      <c r="D85">
+        <v>0.04011739618484942</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002883158457923594</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.003730743956855888</v>
+      </c>
+      <c r="C86">
+        <v>0.04979196501861039</v>
+      </c>
+      <c r="D86">
+        <v>0.02926314988706601</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.0007920739510599792</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01106302300501771</v>
+      </c>
+      <c r="C87">
+        <v>0.1269871031970281</v>
+      </c>
+      <c r="D87">
+        <v>0.07704766579080044</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.009018770856348677</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.003010385761160719</v>
+      </c>
+      <c r="C88">
+        <v>0.0626250328711027</v>
+      </c>
+      <c r="D88">
+        <v>0.03163611601462384</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01099135393742803</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.002530078410065818</v>
+      </c>
+      <c r="C89">
+        <v>0.1360026881133649</v>
+      </c>
+      <c r="D89">
+        <v>-0.3134377847023186</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.001881752611692076</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006071298998907041</v>
+      </c>
+      <c r="C90">
+        <v>0.1187159748799562</v>
+      </c>
+      <c r="D90">
+        <v>-0.3129572980921042</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.002311593874831651</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01119007759193654</v>
+      </c>
+      <c r="C91">
+        <v>0.09940868699410356</v>
+      </c>
+      <c r="D91">
+        <v>0.02836298843636525</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.005138624936134981</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0002346628149782536</v>
+      </c>
+      <c r="C92">
+        <v>0.1318361754230724</v>
+      </c>
+      <c r="D92">
+        <v>-0.3280473204405661</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001491860798490393</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.00373894657493576</v>
+      </c>
+      <c r="C93">
+        <v>0.1047160310678271</v>
+      </c>
+      <c r="D93">
+        <v>-0.2990304025580043</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.009997322324438456</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02213279634367236</v>
+      </c>
+      <c r="C94">
+        <v>0.1417152405469413</v>
+      </c>
+      <c r="D94">
+        <v>0.05476938520824574</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.006614293895954903</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01624718239740242</v>
+      </c>
+      <c r="C95">
+        <v>0.1205242929145851</v>
+      </c>
+      <c r="D95">
+        <v>0.06736381696902094</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.01674985894197676</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03718528528922889</v>
+      </c>
+      <c r="C97">
+        <v>0.2266098502795008</v>
+      </c>
+      <c r="D97">
+        <v>-0.001553410539893365</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01150172717154821</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03852004028967519</v>
+      </c>
+      <c r="C98">
+        <v>0.2613823600204186</v>
+      </c>
+      <c r="D98">
+        <v>0.02677685744774047</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9869212182385155</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9810330900867034</v>
+      </c>
+      <c r="C99">
+        <v>-0.1207944248213525</v>
+      </c>
+      <c r="D99">
+        <v>-0.02414504556069551</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001118796608500412</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002827022770641908</v>
+      </c>
+      <c r="C101">
+        <v>0.04765276233096332</v>
+      </c>
+      <c r="D101">
+        <v>0.01177214922908119</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
